--- a/bin/templates/DailyReport-v3.xlsx
+++ b/bin/templates/DailyReport-v3.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerick\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948"/>
   </bookViews>
   <sheets>
     <sheet name="DailyProductionReport" sheetId="1" r:id="rId1"/>
@@ -21,185 +16,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Jerick</author>
-  </authors>
-  <commentList>
-    <comment ref="J10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jerick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-"Budget Production Monthly Budget, kWh" / "# of days in a month"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jerick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-"Daily Production kWh" * ( "Measured POA Insolation, kWh/m2" / "Daily Budget Energy Production Daily Insolation kWh/m2" )</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jerick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-"IE POA Insolation kWh/m2" / "# of days in a month"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jerick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Summary of the kWh_rec (kWh) from the Gen Meter.  Please take the data from 12:00AM to 11:59PM for 1 day data.
-See Attached Sample.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jerick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-"Total Energy, kWh" / ("Daily Budget Production, kWh"  * "Total Number of Days")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jerick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-"Month to date Total Energy, kWh" / (("Daily Production, kWh" * "Total Number of Days") * "Weather Performance %" )</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jerick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-"Month toDate Total Insolation, kWh/m2" / ("Daily Insolation, kWh/m2" * "Total of Days")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
@@ -329,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$-10409]#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -337,7 +153,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="[$-10409]#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -381,19 +197,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1112,8 +915,8 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="3" fillId="6" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1460,28 +1263,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y7" sqref="Y7"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="2" customWidth="1"/>
     <col min="4" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="12" width="12.90625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.6328125" style="2" customWidth="1"/>
-    <col min="16" max="18" width="19.1796875" style="2" customWidth="1"/>
+    <col min="10" max="12" width="12.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" style="2" customWidth="1"/>
+    <col min="16" max="18" width="19.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="28.5" customHeight="1">
       <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
@@ -1503,8 +1306,8 @@
       <c r="Q1" s="76"/>
       <c r="R1" s="76"/>
     </row>
-    <row r="2" spans="1:19" ht="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="1.05" customHeight="1"/>
+    <row r="3" spans="1:19" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1512,10 +1315,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1">
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="18" customHeight="1">
       <c r="A5" s="76" t="s">
         <v>3</v>
       </c>
@@ -1529,8 +1332,8 @@
       <c r="I5" s="1"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:19" ht="2.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:19" s="9" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="2.7" customHeight="1" thickBot="1"/>
+    <row r="7" spans="1:19" s="9" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A7" s="10"/>
       <c r="B7" s="13"/>
       <c r="C7" s="18"/>
@@ -1560,7 +1363,7 @@
       <c r="Q7" s="81"/>
       <c r="R7" s="81"/>
     </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="3" customFormat="1" ht="12.45" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="17" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="17" customFormat="1" ht="12.45" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8"/>
@@ -1662,7 +1465,7 @@
       </c>
       <c r="R9" s="37"/>
     </row>
-    <row r="10" spans="1:19" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="12.45" customHeight="1">
       <c r="A10" s="12">
         <v>1</v>
       </c>
@@ -1722,7 +1525,7 @@
         <v>0.79968379446640314</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="12.45" customHeight="1">
       <c r="A11" s="12">
         <v>2</v>
       </c>
@@ -1782,7 +1585,7 @@
         <v>0.9147613473793732</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="12.45" customHeight="1">
       <c r="A12" s="12">
         <v>3</v>
       </c>
@@ -1842,7 +1645,7 @@
         <v>0.80164682318905078</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="12.45" customHeight="1">
       <c r="A13" s="12">
         <v>4</v>
       </c>
@@ -1902,7 +1705,7 @@
         <v>0.79734894510107157</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="12.45" customHeight="1" thickBot="1">
       <c r="A14" s="48">
         <v>5</v>
       </c>
@@ -1962,7 +1765,7 @@
         <v>0.73658322353974537</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="13.05" customHeight="1" thickBot="1">
       <c r="A15" s="60"/>
       <c r="B15" s="61" t="s">
         <v>30</v>
@@ -2027,10 +1830,10 @@
       </c>
       <c r="S15" s="72"/>
     </row>
-    <row r="17" spans="1:17" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="12.45" customHeight="1">
       <c r="Q17" s="73"/>
     </row>
-    <row r="21" spans="1:17" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="12.45" customHeight="1">
       <c r="A21" s="70" t="s">
         <v>31</v>
       </c>
@@ -2041,7 +1844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="12.45" customHeight="1">
       <c r="A22" s="70" t="s">
         <v>32</v>
       </c>
@@ -2074,6 +1877,5 @@
     <ignoredError sqref="Q14 D15:H15 J10:L13 Q11:Q13 Q10 P10:P14 R10:R15 P15:Q15 J14:L14 J15:N15 M14:N14" unlockedFormula="1"/>
     <ignoredError sqref="I15" formula="1" unlockedFormula="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bin/templates/DailyReport-v3.xlsx
+++ b/bin/templates/DailyReport-v3.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">DailyProductionReport!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Daily Solar Energy Production Report</t>
   </si>
@@ -91,24 +91,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>125 Bermondsey</t>
-  </si>
-  <si>
-    <t>21/02/2017</t>
-  </si>
-  <si>
-    <t>1935 Drew</t>
-  </si>
-  <si>
-    <t>1755 Brimley</t>
-  </si>
-  <si>
-    <t>200 Bullock</t>
-  </si>
-  <si>
-    <t>51 Gerry Fitzgerald</t>
-  </si>
-  <si>
     <t>TOTAL:</t>
   </si>
   <si>
@@ -134,9 +116,6 @@
   </si>
   <si>
     <t>Gen Meter Reading</t>
-  </si>
-  <si>
-    <t>We do not to show this!  I just used this for Calculations.</t>
   </si>
   <si>
     <t>Month-to-date Performance</t>
@@ -1268,7 +1247,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" customHeight="1"/>
@@ -1340,7 +1319,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
       <c r="F7" s="77" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G7" s="78"/>
       <c r="H7" s="77" t="s">
@@ -1348,17 +1327,17 @@
       </c>
       <c r="I7" s="78"/>
       <c r="J7" s="77" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K7" s="79"/>
       <c r="L7" s="78"/>
       <c r="M7" s="80" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N7" s="81"/>
       <c r="O7" s="82"/>
       <c r="P7" s="80" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="81"/>
       <c r="R7" s="81"/>
@@ -1396,16 +1375,16 @@
         <v>13</v>
       </c>
       <c r="L8" s="44" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M8" s="41" t="s">
         <v>15</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P8" s="32" t="s">
         <v>16</v>
@@ -1466,367 +1445,257 @@
       <c r="R9" s="37"/>
     </row>
     <row r="10" spans="1:19" ht="12.45" customHeight="1">
-      <c r="A10" s="12">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="21">
-        <v>450</v>
-      </c>
-      <c r="E10" s="22">
-        <v>653</v>
-      </c>
-      <c r="F10" s="25">
-        <v>36628.720000000001</v>
-      </c>
-      <c r="G10" s="28">
-        <v>80.5</v>
-      </c>
-      <c r="H10" s="31">
-        <v>50.58</v>
-      </c>
-      <c r="I10" s="40">
-        <v>16999.45</v>
-      </c>
-      <c r="J10" s="46">
+      <c r="A10" s="12"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="46" t="e">
         <f>F10/$B$21</f>
-        <v>1308.1685714285716</v>
-      </c>
-      <c r="K10" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="46" t="e">
         <f>J10*(M10/L10)</f>
-        <v>541.4680347826087</v>
-      </c>
-      <c r="L10" s="47">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="47" t="e">
         <f>G10/$B$21</f>
-        <v>2.875</v>
-      </c>
-      <c r="M10" s="43">
-        <v>1.19</v>
-      </c>
-      <c r="N10" s="25">
-        <v>673.13</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="43"/>
+      <c r="N10" s="25"/>
       <c r="O10" s="25"/>
-      <c r="P10" s="35">
+      <c r="P10" s="35" t="e">
         <f t="shared" ref="P10:P15" si="0">I10/(J10*$B$22)</f>
-        <v>0.59067484848948137</v>
-      </c>
-      <c r="Q10" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="39" t="e">
         <f>I10/((J10*$B$22)*R10)</f>
-        <v>0.73863551140687411</v>
-      </c>
-      <c r="R10" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" s="38" t="e">
         <f>H10/(L10*$B$22)</f>
-        <v>0.79968379446640314</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="12.45" customHeight="1">
-      <c r="A11" s="12">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="21">
-        <v>150</v>
-      </c>
-      <c r="E11" s="22">
-        <v>162.69999999999999</v>
-      </c>
-      <c r="F11" s="25">
-        <v>8969.66</v>
-      </c>
-      <c r="G11" s="28">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="H11" s="31">
-        <v>50.24</v>
-      </c>
-      <c r="I11" s="40">
-        <v>4688.9799999999996</v>
-      </c>
-      <c r="J11" s="46">
+      <c r="A11" s="12"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="46" t="e">
         <f>F11/$B$21</f>
-        <v>320.34499999999997</v>
-      </c>
-      <c r="K11" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="46" t="e">
         <f>J11*(M11/L11)</f>
-        <v>142.43666094420601</v>
-      </c>
-      <c r="L11" s="47">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="47" t="e">
         <f>G11/$B$21</f>
-        <v>2.4964285714285714</v>
-      </c>
-      <c r="M11" s="43">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="N11" s="25">
-        <v>163.84</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="43"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="25"/>
-      <c r="P11" s="35">
+      <c r="P11" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0.66533098548581859</v>
-      </c>
-      <c r="Q11" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="39" t="e">
         <f>I11/((F11/$B$21*$B$22)*R11)</f>
-        <v>0.72732739243068389</v>
-      </c>
-      <c r="R11" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" s="38" t="e">
         <f t="shared" ref="R11:R15" si="1">H11/(L11*$B$22)</f>
-        <v>0.9147613473793732</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="12.45" customHeight="1">
-      <c r="A12" s="12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="21">
-        <v>500</v>
-      </c>
-      <c r="E12" s="22">
-        <v>602.91</v>
-      </c>
-      <c r="F12" s="25">
-        <v>24670.57</v>
-      </c>
-      <c r="G12" s="28">
-        <v>81.7</v>
-      </c>
-      <c r="H12" s="31">
-        <v>51.46</v>
-      </c>
-      <c r="I12" s="40">
-        <v>7465.39</v>
-      </c>
-      <c r="J12" s="46">
+      <c r="A12" s="12"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="46" t="e">
         <f>F12/$B$21</f>
-        <v>881.09178571428572</v>
-      </c>
-      <c r="K12" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="46" t="e">
         <f>J12*(M12/L12)</f>
-        <v>344.24051162790693</v>
-      </c>
-      <c r="L12" s="47">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="47" t="e">
         <f>G12/$B$21</f>
-        <v>2.9178571428571431</v>
-      </c>
-      <c r="M12" s="43">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="N12" s="25">
-        <v>157.22</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="43"/>
+      <c r="N12" s="25"/>
       <c r="O12" s="25"/>
-      <c r="P12" s="35">
+      <c r="P12" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0.38513116861691704</v>
-      </c>
-      <c r="Q12" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" s="39" t="e">
         <f>I12/((F12/$B$21*$B$22)*R12)</f>
-        <v>0.48042499199936617</v>
-      </c>
-      <c r="R12" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" s="38" t="e">
         <f t="shared" si="1"/>
-        <v>0.80164682318905078</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="12.45" customHeight="1">
-      <c r="A13" s="12">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="21">
-        <v>250</v>
-      </c>
-      <c r="E13" s="22">
-        <v>306.24</v>
-      </c>
-      <c r="F13" s="25">
-        <v>17778.57</v>
-      </c>
-      <c r="G13" s="28">
-        <v>82.3</v>
-      </c>
-      <c r="H13" s="31">
-        <v>51.56</v>
-      </c>
-      <c r="I13" s="40">
-        <v>7685.77</v>
-      </c>
-      <c r="J13" s="46">
+      <c r="A13" s="12"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="46" t="e">
         <f>F13/$B$21</f>
-        <v>634.94892857142861</v>
-      </c>
-      <c r="K13" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="46" t="e">
         <f>J13*(M13/L13)</f>
-        <v>261.38602308626974</v>
-      </c>
-      <c r="L13" s="47">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="47" t="e">
         <f>G13/$B$21</f>
-        <v>2.9392857142857141</v>
-      </c>
-      <c r="M13" s="43">
-        <v>1.21</v>
-      </c>
-      <c r="N13" s="25">
-        <v>353.05</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="43"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="25"/>
-      <c r="P13" s="35">
+      <c r="P13" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0.55020674277566139</v>
-      </c>
-      <c r="Q13" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="39" t="e">
         <f>I13/((F13/$B$21*$B$22)*R13)</f>
-        <v>0.69004511281559111</v>
-      </c>
-      <c r="R13" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" s="38" t="e">
         <f t="shared" si="1"/>
-        <v>0.79734894510107157</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="12.45" customHeight="1" thickBot="1">
-      <c r="A14" s="48">
-        <v>5</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="51">
-        <v>500</v>
-      </c>
-      <c r="E14" s="52">
-        <v>611.29999999999995</v>
-      </c>
-      <c r="F14" s="51">
-        <v>34738.46</v>
-      </c>
-      <c r="G14" s="52">
-        <v>82.8</v>
-      </c>
-      <c r="H14" s="53">
-        <v>47.92</v>
-      </c>
-      <c r="I14" s="54">
-        <v>23449.43</v>
-      </c>
-      <c r="J14" s="55">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55" t="e">
         <f>F14/$B$21</f>
-        <v>1240.6592857142857</v>
-      </c>
-      <c r="K14" s="55">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="55" t="e">
         <f>J14*(M14/L14)</f>
-        <v>465.69674637681169</v>
-      </c>
-      <c r="L14" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="56" t="e">
         <f>G14/$B$21</f>
-        <v>2.9571428571428569</v>
-      </c>
-      <c r="M14" s="57">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="N14" s="51">
-        <v>639.86</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="57"/>
+      <c r="N14" s="51"/>
       <c r="O14" s="51"/>
-      <c r="P14" s="35">
+      <c r="P14" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>0.85912642906188386</v>
-      </c>
-      <c r="Q14" s="59">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="59" t="e">
         <f>I14/((F14/$B$21*$B$22)*R14)</f>
-        <v>1.166367087392028</v>
-      </c>
-      <c r="R14" s="58">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>0.73658322353974537</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="13.05" customHeight="1" thickBot="1">
       <c r="A15" s="60"/>
       <c r="B15" s="61" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C15" s="62"/>
       <c r="D15" s="63">
         <f>SUM(D10:D14)</f>
-        <v>1850</v>
+        <v>0</v>
       </c>
       <c r="E15" s="63">
         <f t="shared" ref="E15:H15" si="2">SUM(E10:E14)</f>
-        <v>2336.15</v>
+        <v>0</v>
       </c>
       <c r="F15" s="63">
         <f t="shared" si="2"/>
-        <v>122785.98000000001</v>
+        <v>0</v>
       </c>
       <c r="G15" s="63">
         <f t="shared" si="2"/>
-        <v>397.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="H15" s="63">
         <f t="shared" si="2"/>
-        <v>251.76</v>
+        <v>0</v>
       </c>
       <c r="I15" s="64">
         <f t="shared" ref="I15:M15" si="3">SUM(I10:I14)</f>
-        <v>60289.02</v>
-      </c>
-      <c r="J15" s="65">
+        <v>0</v>
+      </c>
+      <c r="J15" s="65" t="e">
         <f>SUM(J10:J14)</f>
-        <v>4385.2135714285714</v>
-      </c>
-      <c r="K15" s="66">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="66" t="e">
         <f t="shared" si="3"/>
-        <v>1755.227976817803</v>
-      </c>
-      <c r="L15" s="66">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="66" t="e">
         <f>SUM(L10:L14)</f>
-        <v>14.185714285714285</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M15" s="67">
         <f t="shared" si="3"/>
-        <v>5.76</v>
+        <v>0</v>
       </c>
       <c r="N15" s="68">
         <f>SUM(N10:N14)</f>
-        <v>1987.1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="68"/>
-      <c r="P15" s="71">
+      <c r="P15" s="71" t="e">
         <f t="shared" si="0"/>
-        <v>0.62492053245818457</v>
-      </c>
-      <c r="Q15" s="71">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="71" t="e">
         <f>I15/((F15/$B$21*$B$22)*R15)</f>
-        <v>0.77466146625365995</v>
-      </c>
-      <c r="R15" s="71">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" s="71" t="e">
         <f t="shared" si="1"/>
-        <v>0.80670145564405382</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S15" s="72"/>
     </row>
@@ -1835,25 +1704,17 @@
     </row>
     <row r="21" spans="1:17" ht="12.45" customHeight="1">
       <c r="A21" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="70">
-        <v>28</v>
-      </c>
-      <c r="C21" s="69" t="s">
-        <v>39</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B21" s="70"/>
+      <c r="C21" s="69"/>
     </row>
     <row r="22" spans="1:17" ht="12.45" customHeight="1">
       <c r="A22" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="70">
-        <v>22</v>
-      </c>
-      <c r="C22" s="69" t="s">
-        <v>39</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B22" s="70"/>
+      <c r="C22" s="69"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1874,7 +1735,7 @@
 &amp;I© 2017 SunEdison&amp;I &amp;C&amp;R&amp;"Arial"&amp;8 Page 1 of 2 </oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="Q14 D15:H15 J10:L13 Q11:Q13 Q10 P10:P14 R10:R15 P15:Q15 J14:L14 J15:N15 M14:N14" unlockedFormula="1"/>
+    <ignoredError sqref="Q14 D15:H15 J10:L13 Q11:Q13 Q10 P10:P14 R10:R15 P15:Q15 J14:L14 J15:N15" unlockedFormula="1"/>
     <ignoredError sqref="I15" formula="1" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>

--- a/bin/templates/DailyReport-v3.xlsx
+++ b/bin/templates/DailyReport-v3.xlsx
@@ -125,10 +125,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-10409]#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-10409]#,##0.00;\(#,##0.00\)"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="[$-10409]#,##0.0;\(#,##0.0\)"/>
   </numFmts>
@@ -626,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -702,14 +701,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -718,10 +709,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -730,10 +717,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -742,10 +725,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -774,14 +753,6 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -790,10 +761,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -822,22 +789,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -846,15 +797,7 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -936,6 +879,46 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1245,9 +1228,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="R10" sqref="R10:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" customHeight="1"/>
@@ -1264,26 +1247,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
     </row>
     <row r="2" spans="1:19" ht="1.05" customHeight="1"/>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
@@ -1298,18 +1281,18 @@
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="33"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:19" ht="2.7" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:19" s="9" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
@@ -1318,29 +1301,29 @@
       <c r="C7" s="18"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="77" t="s">
+      <c r="G7" s="64"/>
+      <c r="H7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="77" t="s">
+      <c r="I7" s="64"/>
+      <c r="J7" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="80" t="s">
+      <c r="K7" s="65"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="80" t="s">
+      <c r="N7" s="67"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
     </row>
     <row r="8" spans="1:19" s="3" customFormat="1" ht="12.45" customHeight="1">
       <c r="A8" s="11" t="s">
@@ -1352,47 +1335,47 @@
       <c r="C8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="61"/>
+      <c r="F8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="36" t="s">
+      <c r="Q8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="36" t="s">
+      <c r="R8" s="31" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1406,78 +1389,78 @@
       <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="37" t="s">
+      <c r="Q9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="37"/>
+      <c r="R9" s="32"/>
     </row>
     <row r="10" spans="1:19" ht="12.45" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="6"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="46" t="e">
+      <c r="D10" s="69"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="39" t="e">
         <f>F10/$B$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="46" t="e">
+      <c r="K10" s="38" t="e">
         <f>J10*(M10/L10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="47" t="e">
+      <c r="L10" s="39" t="e">
         <f>G10/$B$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="43"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="35" t="e">
+      <c r="M10" s="77"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="30" t="e">
         <f t="shared" ref="P10:P15" si="0">I10/(J10*$B$22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="39" t="e">
+      <c r="Q10" s="33" t="e">
         <f>I10/((J10*$B$22)*R10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R10" s="38" t="e">
+      <c r="R10" s="33" t="e">
         <f>H10/(L10*$B$22)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1486,36 +1469,36 @@
       <c r="A11" s="12"/>
       <c r="B11" s="6"/>
       <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="46" t="e">
+      <c r="D11" s="69"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="39" t="e">
         <f>F11/$B$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="46" t="e">
+      <c r="K11" s="38" t="e">
         <f>J11*(M11/L11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="47" t="e">
+      <c r="L11" s="39" t="e">
         <f>G11/$B$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="43"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="35" t="e">
+      <c r="M11" s="77"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="39" t="e">
+      <c r="Q11" s="33" t="e">
         <f>I11/((F11/$B$21*$B$22)*R11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="38" t="e">
+      <c r="R11" s="33" t="e">
         <f t="shared" ref="R11:R15" si="1">H11/(L11*$B$22)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1524,36 +1507,36 @@
       <c r="A12" s="12"/>
       <c r="B12" s="6"/>
       <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="46" t="e">
+      <c r="D12" s="69"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="39" t="e">
         <f>F12/$B$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="46" t="e">
+      <c r="K12" s="38" t="e">
         <f>J12*(M12/L12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="47" t="e">
+      <c r="L12" s="39" t="e">
         <f>G12/$B$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="35" t="e">
+      <c r="M12" s="77"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q12" s="39" t="e">
+      <c r="Q12" s="33" t="e">
         <f>I12/((F12/$B$21*$B$22)*R12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R12" s="38" t="e">
+      <c r="R12" s="33" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1562,159 +1545,159 @@
       <c r="A13" s="12"/>
       <c r="B13" s="6"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="46" t="e">
+      <c r="D13" s="69"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="39" t="e">
         <f>F13/$B$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="46" t="e">
+      <c r="K13" s="38" t="e">
         <f>J13*(M13/L13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="47" t="e">
+      <c r="L13" s="39" t="e">
         <f>G13/$B$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="43"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="35" t="e">
+      <c r="M13" s="77"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="39" t="e">
+      <c r="Q13" s="33" t="e">
         <f>I13/((F13/$B$21*$B$22)*R13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R13" s="38" t="e">
+      <c r="R13" s="33" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="12.45" customHeight="1" thickBot="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55" t="e">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="44" t="e">
         <f>F14/$B$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="55" t="e">
+      <c r="K14" s="43" t="e">
         <f>J14*(M14/L14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="56" t="e">
+      <c r="L14" s="44" t="e">
         <f>G14/$B$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="57"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="35" t="e">
+      <c r="M14" s="78"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q14" s="59" t="e">
+      <c r="Q14" s="45" t="e">
         <f>I14/((F14/$B$21*$B$22)*R14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R14" s="58" t="e">
+      <c r="R14" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="13.05" customHeight="1" thickBot="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63">
+      <c r="C15" s="48"/>
+      <c r="D15" s="49">
         <f>SUM(D10:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="49">
         <f t="shared" ref="E15:H15" si="2">SUM(E10:E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="50">
         <f t="shared" ref="I15:M15" si="3">SUM(I10:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="65" t="e">
+      <c r="J15" s="51" t="e">
         <f>SUM(J10:J14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="66" t="e">
+      <c r="K15" s="52" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="66" t="e">
+      <c r="L15" s="52" t="e">
         <f>SUM(L10:L14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="68">
+      <c r="N15" s="54">
         <f>SUM(N10:N14)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="68"/>
-      <c r="P15" s="71" t="e">
+      <c r="O15" s="54"/>
+      <c r="P15" s="57" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="71" t="e">
+      <c r="Q15" s="57" t="e">
         <f>I15/((F15/$B$21*$B$22)*R15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R15" s="71" t="e">
+      <c r="R15" s="57" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S15" s="72"/>
+      <c r="S15" s="58"/>
     </row>
     <row r="17" spans="1:17" ht="12.45" customHeight="1">
-      <c r="Q17" s="73"/>
+      <c r="Q17" s="59"/>
     </row>
     <row r="21" spans="1:17" ht="12.45" customHeight="1">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="55"/>
     </row>
     <row r="22" spans="1:17" ht="12.45" customHeight="1">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="55"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
